--- a/data/Raw/data.xlsx
+++ b/data/Raw/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Desktop\Projet Data Science\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Desktop\Projet Final\Stefan-Projet\data\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C3663C-DED4-41C8-A848-5ECA994DB2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FCF95D-71C7-44DD-8D45-7ECE0E5BF683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B8841F4-7073-4A4F-AEBA-B0309A4C78A6}"/>
   </bookViews>
@@ -1263,9 +1263,6 @@
     <t>2024-12</t>
   </si>
   <si>
-    <t>DEM-EUR/CHF</t>
-  </si>
-  <si>
     <t>Mois</t>
   </si>
   <si>
@@ -2250,22 +2247,25 @@
     <t>1.132713</t>
   </si>
   <si>
-    <t>Short rate (3 months) - Libor/Saron (%)</t>
-  </si>
-  <si>
-    <t>Bond yield (10 years) (%)</t>
-  </si>
-  <si>
-    <t>Inflation (%)</t>
-  </si>
-  <si>
-    <t>Unemployement (%)</t>
-  </si>
-  <si>
-    <t>Variation KOF</t>
-  </si>
-  <si>
-    <t>Variation SMI</t>
+    <t>3Mth</t>
+  </si>
+  <si>
+    <t>10Yd</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>Unmp</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>SMI</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>741</v>
@@ -2768,7 +2768,7 @@
         <v>0.85307627654956941</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G2" s="7">
         <v>-13.147</v>
@@ -2794,7 +2794,7 @@
         <v>0.89101409387152397</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G3" s="7">
         <v>12.54</v>
@@ -2820,7 +2820,7 @@
         <v>0.92939369072561184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G4" s="7">
         <v>5.81</v>
@@ -2846,7 +2846,7 @@
         <v>0.9676904539174247</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G5" s="7">
         <v>0.58199999999999996</v>
@@ -2872,7 +2872,7 @@
         <v>0.9733783653936422</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G6" s="7">
         <v>-3.7690000000000001</v>
@@ -2898,7 +2898,7 @@
         <v>1.0365252272679581</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G7" s="7">
         <v>3.351</v>
@@ -2924,7 +2924,7 @@
         <v>1.0903394965259561</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G8" s="7">
         <v>4.4400000000000004</v>
@@ -2950,7 +2950,7 @@
         <v>1.148792450871355</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G9" s="7">
         <v>0.23699999999999999</v>
@@ -2976,7 +2976,7 @@
         <v>1.2616118988899185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G10" s="7">
         <v>1.59</v>
@@ -3002,7 +3002,7 @@
         <v>1.4302612352818389</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G11" s="7">
         <v>-5.66</v>
@@ -3028,7 +3028,7 @@
         <v>1.6174653120233611</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G12" s="7">
         <v>-1.2969999999999999</v>
@@ -3054,7 +3054,7 @@
         <v>1.8609410566703739</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G13" s="7">
         <v>6.2270000000000003</v>
@@ -3080,7 +3080,7 @@
         <v>2.0007642785905908</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G14" s="7">
         <v>1.8</v>
@@ -3106,7 +3106,7 @@
         <v>2.0930133671441937</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G15" s="7">
         <v>1.8520000000000001</v>
@@ -3132,7 +3132,7 @@
         <v>2.1900391968889887</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G16" s="7">
         <v>-6.766</v>
@@ -3158,7 +3158,7 @@
         <v>2.2674610598953646</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G17" s="7">
         <v>-0.92100000000000004</v>
@@ -3184,7 +3184,7 @@
         <v>2.3387808431141481</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G18" s="7">
         <v>-3.9E-2</v>
@@ -3210,7 +3210,7 @@
         <v>2.4893448299093577</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G19" s="7">
         <v>-4.2510000000000003</v>
@@ -3236,7 +3236,7 @@
         <v>2.61895190014899</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G20" s="7">
         <v>2.234</v>
@@ -3262,7 +3262,7 @@
         <v>2.8185810262317643</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G21" s="7">
         <v>5.4749999999999996</v>
@@ -3288,7 +3288,7 @@
         <v>3.0116386817740541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G22" s="7">
         <v>-4.2530000000000001</v>
@@ -3314,7 +3314,7 @@
         <v>3.3155553886610658</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G23" s="7">
         <v>0.39100000000000001</v>
@@ -3340,7 +3340,7 @@
         <v>3.5796014927730395</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G24" s="7">
         <v>3.6059999999999999</v>
@@ -3366,7 +3366,7 @@
         <v>3.9073742943952534</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G25" s="7">
         <v>5.4850000000000003</v>
@@ -3392,7 +3392,7 @@
         <v>4.0717991140111476</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G26" s="7">
         <v>3.8340000000000001</v>
@@ -3418,7 +3418,7 @@
         <v>4.1697913364824855</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G27" s="7">
         <v>-5.3419999999999996</v>
@@ -3444,7 +3444,7 @@
         <v>4.2847644597201988</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G28" s="7">
         <v>-1.3009999999999999</v>
@@ -3470,7 +3470,7 @@
         <v>4.346696427881148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G29" s="7">
         <v>1.4339999999999999</v>
@@ -3496,7 +3496,7 @@
         <v>4.429806202363741</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G30" s="7">
         <v>4.1189999999999998</v>
@@ -3522,7 +3522,7 @@
         <v>4.5638586791454658</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G31" s="7">
         <v>-0.28199999999999997</v>
@@ -3548,7 +3548,7 @@
         <v>4.6665448091457202</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G32" s="7">
         <v>-0.56299999999999994</v>
@@ -3574,7 +3574,7 @@
         <v>4.75103514466623</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G33" s="7">
         <v>9.0920000000000005</v>
@@ -3600,7 +3600,7 @@
         <v>4.7913199157526432</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G34" s="7">
         <v>-0.63500000000000001</v>
@@ -3626,7 +3626,7 @@
         <v>4.9781098241827904</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G35" s="7">
         <v>2.4870000000000001</v>
@@ -3652,7 +3652,7 @@
         <v>5.0911777731881793</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G36" s="7">
         <v>-1.599</v>
@@ -3678,7 +3678,7 @@
         <v>5.1955205764339336</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G37" s="7">
         <v>-6.2249999999999996</v>
@@ -3704,7 +3704,7 @@
         <v>5.1738457681386389</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G38" s="7">
         <v>6.43</v>
@@ -3730,7 +3730,7 @@
         <v>5.028969692819647</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G39" s="7">
         <v>-1.87</v>
@@ -3756,7 +3756,7 @@
         <v>4.9009916846047563</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G40" s="7">
         <v>-4.5330000000000004</v>
@@ -3782,7 +3782,7 @@
         <v>4.7772105819451331</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G41" s="7">
         <v>-0.75600000000000001</v>
@@ -3808,7 +3808,7 @@
         <v>4.6448976120711842</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G42" s="7">
         <v>0.879</v>
@@ -3834,7 +3834,7 @@
         <v>4.5777471231869091</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G43" s="7">
         <v>-1.2490000000000001</v>
@@ -3860,7 +3860,7 @@
         <v>4.5334035026490209</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G44" s="7">
         <v>3.2879999999999998</v>
@@ -3886,7 +3886,7 @@
         <v>4.4428663097824348</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G45" s="7">
         <v>-3.8759999999999999</v>
@@ -3912,7 +3912,7 @@
         <v>4.3913713830681367</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G46" s="7">
         <v>-3.476</v>
@@ -3938,7 +3938,7 @@
         <v>4.4651485649344123</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G47" s="7">
         <v>2.2879999999999998</v>
@@ -3964,7 +3964,7 @@
         <v>4.5386772458138633</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G48" s="7">
         <v>2.42</v>
@@ -3990,7 +3990,7 @@
         <v>4.6335770115602655</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G49" s="7">
         <v>-10.166</v>
@@ -4016,7 +4016,7 @@
         <v>4.5655429636117244</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G50" s="7">
         <v>4.2839999999999998</v>
@@ -4042,7 +4042,7 @@
         <v>4.4391664062008171</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G51" s="7">
         <v>-2.7370000000000001</v>
@@ -4068,7 +4068,7 @@
         <v>4.3262365132992207</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G52" s="7">
         <v>-3.09</v>
@@ -4094,7 +4094,7 @@
         <v>4.1957734952160797</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G53" s="7">
         <v>3.5419999999999998</v>
@@ -4120,7 +4120,7 @@
         <v>4.0406812682165025</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G54" s="7">
         <v>-2.367</v>
@@ -4146,7 +4146,7 @@
         <v>4.0341097976760185</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G55" s="7">
         <v>-0.66600000000000004</v>
@@ -4172,7 +4172,7 @@
         <v>4.0236727562293675</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G56" s="7">
         <v>2.84</v>
@@ -4198,7 +4198,7 @@
         <v>3.96105050754946</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G57" s="7">
         <v>1.2969999999999999</v>
@@ -4224,7 +4224,7 @@
         <v>4.0412887150731862</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G58" s="7">
         <v>-2.2530000000000001</v>
@@ -4250,7 +4250,7 @@
         <v>4.1997218997845218</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G59" s="7">
         <v>2.7519999999999998</v>
@@ -4276,7 +4276,7 @@
         <v>4.3381369494460635</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G60" s="7">
         <v>-0.77100000000000002</v>
@@ -4302,7 +4302,7 @@
         <v>4.5463531651846809</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G61" s="7">
         <v>2.0939999999999999</v>
@@ -4328,7 +4328,7 @@
         <v>4.5862789904012349</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G62" s="7">
         <v>-5.1680000000000001</v>
@@ -4354,7 +4354,7 @@
         <v>4.5642728474568406</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G63" s="7">
         <v>3.3650000000000002</v>
@@ -4380,7 +4380,7 @@
         <v>4.5324094987017203</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G64" s="7">
         <v>-2.0099999999999998</v>
@@ -4406,7 +4406,7 @@
         <v>4.4834271930764311</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G65" s="7">
         <v>0.78300000000000003</v>
@@ -4432,7 +4432,7 @@
         <v>4.4168013173865646</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G66" s="7">
         <v>1.3149999999999999</v>
@@ -4458,7 +4458,7 @@
         <v>4.4615867174565871</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G67" s="7">
         <v>3.01</v>
@@ -4484,7 +4484,7 @@
         <v>4.5200948942435026</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G68" s="7">
         <v>-2.1789999999999998</v>
@@ -4510,7 +4510,7 @@
         <v>4.5947556351740442</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G69" s="7">
         <v>1.877</v>
@@ -4536,7 +4536,7 @@
         <v>4.8073068125717207</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G70" s="7">
         <v>-2.294</v>
@@ -4562,7 +4562,7 @@
         <v>5.0535712905153245</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G71" s="7">
         <v>4.4749999999999996</v>
@@ -4588,7 +4588,7 @@
         <v>5.3060759043503136</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G72" s="7">
         <v>-6.0000000000000001E-3</v>
@@ -4614,7 +4614,7 @@
         <v>5.6741334770589411</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G73" s="7">
         <v>2.3679999999999999</v>
@@ -4640,7 +4640,7 @@
         <v>5.6959463414580265</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G74" s="7">
         <v>2.879</v>
@@ -4666,7 +4666,7 @@
         <v>5.5831821158809802</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G75" s="7">
         <v>-0.158</v>
@@ -4692,7 +4692,7 @@
         <v>5.4596219029874238</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G76" s="7">
         <v>-3.1509999999999998</v>
@@ -4718,7 +4718,7 @@
         <v>5.3038670066896465</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G77" s="7">
         <v>5.09</v>
@@ -4744,7 +4744,7 @@
         <v>5.116911430934949</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G78" s="7">
         <v>-3.976</v>
@@ -4770,7 +4770,7 @@
         <v>5.0384127303189983</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G79" s="7">
         <v>2.3410000000000002</v>
@@ -4796,7 +4796,7 @@
         <v>4.9932959955998761</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G80" s="7">
         <v>-1.4590000000000001</v>
@@ -4822,7 +4822,7 @@
         <v>4.8935090437792468</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G81" s="7">
         <v>-1.74</v>
@@ -4848,7 +4848,7 @@
         <v>4.7901050220392767</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G82" s="7">
         <v>4.1900000000000004</v>
@@ -4874,7 +4874,7 @@
         <v>4.8575592343518927</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G83" s="7">
         <v>-6.694</v>
@@ -4900,7 +4900,7 @@
         <v>4.9851782966969251</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G84" s="7">
         <v>-0.51</v>
@@ -4926,7 +4926,7 @@
         <v>5.038826898630373</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G85" s="7">
         <v>-0.39800000000000002</v>
@@ -4952,7 +4952,7 @@
         <v>4.8747058024428203</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G86" s="7">
         <v>0.86599999999999999</v>
@@ -4978,7 +4978,7 @@
         <v>4.5747098889034925</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G87" s="7">
         <v>-2.3279999999999998</v>
@@ -5004,7 +5004,7 @@
         <v>4.2492840410457369</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G88" s="7">
         <v>0.84199999999999997</v>
@@ -5030,7 +5030,7 @@
         <v>3.9307333871568062</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G89" s="7">
         <v>2.3250000000000002</v>
@@ -5056,7 +5056,7 @@
         <v>3.6109678395545095</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G90" s="7">
         <v>-5.1079999999999997</v>
@@ -5082,7 +5082,7 @@
         <v>3.4788481482258686</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G91" s="7">
         <v>4.6959999999999997</v>
@@ -5108,7 +5108,7 @@
         <v>3.374781457187698</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G92" s="7">
         <v>-5.6829999999999998</v>
@@ -5134,7 +5134,7 @@
         <v>3.2455333328179234</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G93" s="7">
         <v>2E-3</v>
@@ -5160,7 +5160,7 @@
         <v>3.1894549434577426</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G94" s="7">
         <v>-1.204</v>
@@ -5186,7 +5186,7 @@
         <v>3.2740281126405271</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G95" s="7">
         <v>0.70599999999999996</v>
@@ -5212,7 +5212,7 @@
         <v>3.4323232412480711</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G96" s="7">
         <v>6.9489999999999998</v>
@@ -13350,19 +13350,19 @@
   <sheetData>
     <row r="2" spans="2:115" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="3" spans="2:115" x14ac:dyDescent="0.3">
@@ -13370,340 +13370,340 @@
         <v>36130</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="F3" s="4">
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BQ3" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BR3" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="BS3" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="BT3" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="BU3" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BV3" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BW3" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BX3" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BY3" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="BZ3" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="CA3" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="CB3" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="CC3" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="CD3" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="CE3" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="CF3" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="CG3" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="CH3" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="CI3" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="CJ3" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="CK3" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="CL3" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="CM3" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="CN3" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="CO3" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="CP3" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="CQ3" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CR3" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="CS3" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="CT3" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CU3" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="CV3" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="CW3" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="CX3" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="CY3" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="CZ3" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="DA3" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="DB3" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="DC3" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="DD3" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="DE3" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="DF3" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="DG3" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="DH3" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="DI3" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="DJ3" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="DK3" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="2:115" x14ac:dyDescent="0.3">
@@ -13711,13 +13711,13 @@
         <v>36100</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="F4" s="4">
         <v>21</v>
@@ -13728,13 +13728,13 @@
         <v>36069</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="F5" s="4">
         <v>22</v>
@@ -13745,13 +13745,13 @@
         <v>36039</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="F6" s="4">
         <v>22</v>
@@ -13762,13 +13762,13 @@
         <v>36008</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="F7" s="4">
         <v>21</v>
@@ -13779,13 +13779,13 @@
         <v>35977</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="F8" s="4">
         <v>23</v>
@@ -13796,13 +13796,13 @@
         <v>35947</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="F9" s="4">
         <v>22</v>
@@ -13813,13 +13813,13 @@
         <v>35916</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="F10" s="4">
         <v>21</v>
@@ -13830,13 +13830,13 @@
         <v>35886</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="F11" s="4">
         <v>22</v>
@@ -13847,13 +13847,13 @@
         <v>35855</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="F12" s="4">
         <v>22</v>
@@ -13864,13 +13864,13 @@
         <v>35827</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="F13" s="4">
         <v>20</v>
@@ -13881,13 +13881,13 @@
         <v>35796</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="F14" s="4">
         <v>22</v>
@@ -13898,13 +13898,13 @@
         <v>35765</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="F15" s="4">
         <v>23</v>
@@ -13915,13 +13915,13 @@
         <v>35735</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="F16" s="4">
         <v>20</v>
@@ -13932,13 +13932,13 @@
         <v>35704</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="F17" s="4">
         <v>23</v>
@@ -13949,13 +13949,13 @@
         <v>35674</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="F18" s="4">
         <v>22</v>
@@ -13966,13 +13966,13 @@
         <v>35643</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="F19" s="4">
         <v>21</v>
@@ -13983,13 +13983,13 @@
         <v>35612</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="F20" s="4">
         <v>23</v>
@@ -14000,13 +14000,13 @@
         <v>35582</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="F21" s="4">
         <v>21</v>
@@ -14017,13 +14017,13 @@
         <v>35551</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="F22" s="4">
         <v>22</v>
@@ -14034,13 +14034,13 @@
         <v>35521</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="F23" s="4">
         <v>22</v>
@@ -14051,13 +14051,13 @@
         <v>35490</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="F24" s="4">
         <v>21</v>
@@ -14068,13 +14068,13 @@
         <v>35462</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="F25" s="4">
         <v>20</v>
@@ -14085,13 +14085,13 @@
         <v>35431</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="F26" s="4">
         <v>23</v>
@@ -14102,13 +14102,13 @@
         <v>35400</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="F27" s="4">
         <v>22</v>
@@ -14119,13 +14119,13 @@
         <v>35370</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="F28" s="4">
         <v>21</v>
@@ -14136,13 +14136,13 @@
         <v>35339</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="F29" s="4">
         <v>23</v>
@@ -14153,13 +14153,13 @@
         <v>35309</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="F30" s="4">
         <v>21</v>
@@ -14170,13 +14170,13 @@
         <v>35278</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="F31" s="4">
         <v>22</v>
@@ -14187,13 +14187,13 @@
         <v>35247</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="F32" s="4">
         <v>23</v>
@@ -14204,13 +14204,13 @@
         <v>35217</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="F33" s="4">
         <v>20</v>
@@ -14221,13 +14221,13 @@
         <v>35186</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="F34" s="4">
         <v>23</v>
@@ -14238,13 +14238,13 @@
         <v>35156</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="F35" s="4">
         <v>22</v>
@@ -14255,13 +14255,13 @@
         <v>35125</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="F36" s="4">
         <v>21</v>
@@ -14272,13 +14272,13 @@
         <v>35096</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="F37" s="4">
         <v>21</v>
@@ -14289,13 +14289,13 @@
         <v>35065</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="F38" s="4">
         <v>23</v>
@@ -14306,13 +14306,13 @@
         <v>35034</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="F39" s="4">
         <v>21</v>
@@ -14323,13 +14323,13 @@
         <v>35004</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="F40" s="4">
         <v>22</v>
@@ -14340,13 +14340,13 @@
         <v>34973</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="F41" s="4">
         <v>22</v>
@@ -14357,13 +14357,13 @@
         <v>34943</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="F42" s="4">
         <v>21</v>
@@ -14374,13 +14374,13 @@
         <v>34912</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="F43" s="4">
         <v>23</v>
@@ -14391,13 +14391,13 @@
         <v>34881</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="F44" s="4">
         <v>21</v>
@@ -14408,13 +14408,13 @@
         <v>34851</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="F45" s="4">
         <v>22</v>
@@ -14425,13 +14425,13 @@
         <v>34820</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="F46" s="4">
         <v>23</v>
@@ -14442,13 +14442,13 @@
         <v>34790</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="F47" s="4">
         <v>20</v>
@@ -14459,13 +14459,13 @@
         <v>34759</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="F48" s="4">
         <v>23</v>
@@ -14476,13 +14476,13 @@
         <v>34731</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="F49" s="4">
         <v>20</v>
@@ -14493,13 +14493,13 @@
         <v>34700</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="F50" s="4">
         <v>22</v>
@@ -14510,13 +14510,13 @@
         <v>34669</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="F51" s="4">
         <v>22</v>
@@ -14527,13 +14527,13 @@
         <v>34639</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="F52" s="4">
         <v>22</v>
@@ -14544,13 +14544,13 @@
         <v>34608</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="F53" s="4">
         <v>21</v>
@@ -14561,13 +14561,13 @@
         <v>34578</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="F54" s="4">
         <v>22</v>
@@ -14578,13 +14578,13 @@
         <v>34547</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="F55" s="4">
         <v>23</v>
@@ -14595,13 +14595,13 @@
         <v>34516</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="F56" s="4">
         <v>21</v>
@@ -14612,13 +14612,13 @@
         <v>34486</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>578</v>
       </c>
       <c r="F57" s="4">
         <v>22</v>
@@ -14629,13 +14629,13 @@
         <v>34455</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="F58" s="4">
         <v>22</v>
@@ -14646,13 +14646,13 @@
         <v>34425</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>584</v>
       </c>
       <c r="F59" s="4">
         <v>21</v>
@@ -14663,13 +14663,13 @@
         <v>34394</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="F60" s="4">
         <v>23</v>
@@ -14680,13 +14680,13 @@
         <v>34366</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="F61" s="4">
         <v>20</v>
@@ -14697,13 +14697,13 @@
         <v>34335</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="F62" s="4">
         <v>21</v>
@@ -14714,13 +14714,13 @@
         <v>34304</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="F63" s="4">
         <v>23</v>
@@ -14731,13 +14731,13 @@
         <v>34274</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="F64" s="4">
         <v>22</v>
@@ -14748,13 +14748,13 @@
         <v>34243</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="F65" s="4">
         <v>21</v>
@@ -14765,13 +14765,13 @@
         <v>34213</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="F66" s="4">
         <v>22</v>
@@ -14782,13 +14782,13 @@
         <v>34182</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>608</v>
       </c>
       <c r="F67" s="4">
         <v>22</v>
@@ -14799,13 +14799,13 @@
         <v>34151</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="F68" s="4">
         <v>22</v>
@@ -14816,13 +14816,13 @@
         <v>34121</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="F69" s="4">
         <v>22</v>
@@ -14833,13 +14833,13 @@
         <v>34090</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="F70" s="4">
         <v>21</v>
@@ -14850,13 +14850,13 @@
         <v>34060</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>620</v>
       </c>
       <c r="F71" s="4">
         <v>22</v>
@@ -14867,13 +14867,13 @@
         <v>34029</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="F72" s="4">
         <v>23</v>
@@ -14884,13 +14884,13 @@
         <v>34001</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>625</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>626</v>
       </c>
       <c r="F73" s="4">
         <v>20</v>
@@ -14901,13 +14901,13 @@
         <v>33970</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>629</v>
       </c>
       <c r="F74" s="4">
         <v>21</v>
@@ -14918,13 +14918,13 @@
         <v>33939</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="F75" s="4">
         <v>23</v>
@@ -14935,13 +14935,13 @@
         <v>33909</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="F76" s="4">
         <v>21</v>
@@ -14952,13 +14952,13 @@
         <v>33878</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="F77" s="4">
         <v>22</v>
@@ -14969,13 +14969,13 @@
         <v>33848</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="F78" s="4">
         <v>22</v>
@@ -14986,13 +14986,13 @@
         <v>33817</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="F79" s="4">
         <v>21</v>
@@ -15003,13 +15003,13 @@
         <v>33786</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="F80" s="4">
         <v>23</v>
@@ -15020,13 +15020,13 @@
         <v>33756</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="F81" s="4">
         <v>22</v>
@@ -15037,13 +15037,13 @@
         <v>33725</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="F82" s="4">
         <v>21</v>
@@ -15054,13 +15054,13 @@
         <v>33695</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>656</v>
       </c>
       <c r="F83" s="4">
         <v>22</v>
@@ -15071,13 +15071,13 @@
         <v>33664</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="F84" s="4">
         <v>22</v>
@@ -15088,13 +15088,13 @@
         <v>33635</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="F85" s="4">
         <v>20</v>
@@ -15105,13 +15105,13 @@
         <v>33604</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="F86" s="4">
         <v>23</v>
@@ -15122,13 +15122,13 @@
         <v>33573</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>667</v>
       </c>
       <c r="F87" s="4">
         <v>22</v>
@@ -15139,13 +15139,13 @@
         <v>33543</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>670</v>
       </c>
       <c r="F88" s="4">
         <v>21</v>
@@ -15156,13 +15156,13 @@
         <v>33512</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>673</v>
       </c>
       <c r="F89" s="4">
         <v>23</v>
@@ -15173,13 +15173,13 @@
         <v>33482</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>676</v>
       </c>
       <c r="F90" s="4">
         <v>21</v>
@@ -15190,13 +15190,13 @@
         <v>33451</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="F91" s="4">
         <v>22</v>
@@ -15207,13 +15207,13 @@
         <v>33420</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>681</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>682</v>
       </c>
       <c r="F92" s="4">
         <v>23</v>
@@ -15224,13 +15224,13 @@
         <v>33390</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>684</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>685</v>
       </c>
       <c r="F93" s="4">
         <v>20</v>
@@ -15241,13 +15241,13 @@
         <v>33359</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>688</v>
       </c>
       <c r="F94" s="4">
         <v>23</v>
@@ -15258,13 +15258,13 @@
         <v>33329</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="F95" s="4">
         <v>22</v>
@@ -15275,13 +15275,13 @@
         <v>33298</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>694</v>
       </c>
       <c r="F96" s="4">
         <v>21</v>
@@ -15292,13 +15292,13 @@
         <v>33270</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="F97" s="4">
         <v>20</v>
@@ -15309,13 +15309,13 @@
         <v>33239</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>699</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>700</v>
       </c>
       <c r="F98" s="4">
         <v>23</v>
@@ -15326,13 +15326,13 @@
         <v>33208</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>703</v>
       </c>
       <c r="F99" s="4">
         <v>21</v>
@@ -15343,13 +15343,13 @@
         <v>33178</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>706</v>
       </c>
       <c r="F100" s="4">
         <v>22</v>
@@ -15360,13 +15360,13 @@
         <v>33147</v>
       </c>
       <c r="C101" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="F101" s="4">
         <v>23</v>
@@ -15377,13 +15377,13 @@
         <v>33117</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>711</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>712</v>
       </c>
       <c r="F102" s="4">
         <v>20</v>
@@ -15394,13 +15394,13 @@
         <v>33086</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>714</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>715</v>
       </c>
       <c r="F103" s="4">
         <v>23</v>
@@ -15411,13 +15411,13 @@
         <v>33055</v>
       </c>
       <c r="C104" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>717</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>718</v>
       </c>
       <c r="F104" s="4">
         <v>22</v>
@@ -15428,13 +15428,13 @@
         <v>33025</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>720</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>721</v>
       </c>
       <c r="F105" s="4">
         <v>21</v>
@@ -15445,13 +15445,13 @@
         <v>32994</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="F106" s="4">
         <v>23</v>
@@ -15462,13 +15462,13 @@
         <v>32964</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>726</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>727</v>
       </c>
       <c r="F107" s="4">
         <v>21</v>
@@ -15479,13 +15479,13 @@
         <v>32933</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>730</v>
       </c>
       <c r="F108" s="4">
         <v>22</v>
@@ -15496,13 +15496,13 @@
         <v>32905</v>
       </c>
       <c r="C109" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>733</v>
       </c>
       <c r="F109" s="4">
         <v>20</v>
@@ -15513,13 +15513,13 @@
         <v>32874</v>
       </c>
       <c r="C110" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>736</v>
       </c>
       <c r="F110" s="4">
         <v>23</v>
